--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Basse-Normandie/Liste_des_espèces_végétales_protégées_en_Basse-Normandie.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Basse-Normandie/Liste_des_espèces_végétales_protégées_en_Basse-Normandie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Basse-Normandie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Basse-Normandie est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Basse-Normandie, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 27 avril 1995[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Basse-Normandie est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Basse-Normandie, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 27 avril 1995.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Basse-Normandie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Lichens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cladonia rangiferina (L.) Web. ex Wigg.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Basse-Normandie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hépatiques
+          <t>Hépatiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Blasia pusilla L.
 Douinia ovata (Dicks.) Buch.
 Lepidozia cupressina (Sw.) Linbenb.
 Ptilidium ciliare (L.) Hampe
 Southbya nigrella (De not.) Henriq.
-Mousses
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bryophytes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mousses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Andreaea crassinervia Bruch
 Andreaea rothii  F.Weber &amp; D.Mohr
 Andraea rupestris Hedw.
@@ -566,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asplenium marinum L., Doradille marine
@@ -607,33 +665,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Phanérogames angiospermes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monocotylédones
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agrostis curtisii Kerguélen, Agrostide à soie
 Alopecurus bulbosus Gouan, Vulpin bulbeux
 Anthericum ramosum L., Phalangère rameuse
@@ -689,7 +753,43 @@
 Trichophorum cespitosum subsp. germanicum (Palla) Hegi anciennement Scirpus cespitosus L. ssp germanicus (Palla) Brodd., Scirpe cespiteux
 Zostera marina L., Zostère marine
 Zostera noltii Hornem., Zostère naine
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achillea maritima (L.) Ehrend. &amp; Y.P.Guo anciennement Otanthus maritimus (L.) Hoffm. et Link, Diotis maritime
 Actaea spicata L., Actée en épi
 Alchemilla xanthochlora Rothm., Alchemille vert jaunâtre
